--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20280" windowHeight="7335" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20280" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>testcase name</t>
   </si>
@@ -34,61 +34,37 @@
     <t>tc#1</t>
   </si>
   <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Module1</t>
+  </si>
+  <si>
+    <t>Module2</t>
+  </si>
+  <si>
+    <t>tcname</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>getlantern</t>
+  </si>
+  <si>
+    <t>domainName=</t>
+  </si>
+  <si>
     <t>tc#2</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>u1</t>
-  </si>
-  <si>
-    <t>u2</t>
-  </si>
-  <si>
-    <t>Module1</t>
-  </si>
-  <si>
-    <t>Module2</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>tcname</t>
-  </si>
-  <si>
-    <t>module</t>
-  </si>
-  <si>
-    <t>parameter</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>tc#3</t>
-  </si>
-  <si>
-    <t>tc#4</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
 </sst>
 </file>
@@ -443,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,32 +444,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -502,10 +468,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,16 +481,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -532,98 +498,68 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
